--- a/configuration.xlsx
+++ b/configuration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>Order</t>
   </si>
@@ -59,6 +59,9 @@
     <t>mobDevicePackage</t>
   </si>
   <si>
+    <t>appActivity</t>
+  </si>
+  <si>
     <t>resource_id_uat</t>
   </si>
   <si>
@@ -140,7 +143,7 @@
     <t>dev</t>
   </si>
   <si>
-    <t>https://test.dbp.nlb.si/web-retail/login</t>
+    <t>https://dbp-iuat.nlb.si/web-retail/login#/</t>
   </si>
   <si>
     <t>Chrome</t>
@@ -158,16 +161,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>si.nlb.klik.test:id/</t>
-  </si>
-  <si>
-    <t>si.nlb.klik.test</t>
+    <t>si.nlb.klik.uat:id/</t>
+  </si>
+  <si>
+    <t>si.nlb.klik.uat</t>
+  </si>
+  <si>
+    <t>si.nlb.klik.RootActivity</t>
   </si>
   <si>
     <t>emulator-5554</t>
   </si>
   <si>
-    <t>device</t>
+    <t>Pixel 4</t>
   </si>
   <si>
     <t>Android</t>
@@ -179,6 +185,9 @@
     <t>Pixel_4_API_33</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>1379</t>
   </si>
   <si>
@@ -189,9 +198,6 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>https://nlb.testrail.io/</t>
@@ -900,7 +906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,8 +924,6 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -934,7 +938,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1313,13 +1317,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9.21904761904762" customWidth="1"/>
     <col min="2" max="2" width="13.3333333333333" customWidth="1"/>
@@ -1327,14 +1331,15 @@
     <col min="4" max="5" width="22.552380952381" customWidth="1"/>
     <col min="7" max="7" width="20.3333333333333" customWidth="1"/>
     <col min="8" max="9" width="22.5714285714286" customWidth="1"/>
-    <col min="10" max="11" width="31.7142857142857" customWidth="1"/>
-    <col min="19" max="19" width="16.4285714285714" customWidth="1"/>
-    <col min="20" max="20" width="12.2857142857143" customWidth="1"/>
-    <col min="30" max="30" width="16" customWidth="1"/>
-    <col min="31" max="31" width="17.7142857142857" customWidth="1"/>
+    <col min="10" max="12" width="31.7142857142857" customWidth="1"/>
+    <col min="13" max="13" width="16.4285714285714" customWidth="1"/>
+    <col min="20" max="20" width="16.4285714285714" customWidth="1"/>
+    <col min="21" max="21" width="12.2857142857143" customWidth="1"/>
+    <col min="31" max="31" width="16" customWidth="1"/>
+    <col min="32" max="32" width="17.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1389,16 +1394,16 @@
       <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
@@ -1422,7 +1427,7 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AE1" t="s">
@@ -1437,130 +1442,134 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
       <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="10:11">
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
+      <c r="AK2" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AE2" r:id="rId1" display="bozidar.tomasevic@dtc.rs"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://test.dbp.nlb.si/web-retail/login" tooltip="https://test.dbp.nlb.si/web-retail/login"/>
-    <hyperlink ref="AH2" r:id="rId3" display="\\10.11.1.158\03. TEST Team\NLB SLO\FileShare\UAT" tooltip="\\10.11.1.158\03. TEST Team\NLB SLO\FileShare\UAT"/>
+    <hyperlink ref="AF2" r:id="rId1" display="bozidar.tomasevic@dtc.rs"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://dbp-iuat.nlb.si/web-retail/login#/" tooltip="https://dbp-iuat.nlb.si/web-retail/login#/"/>
+    <hyperlink ref="AI2" r:id="rId3" display="\\10.11.1.158\03. TEST Team\NLB SLO\FileShare\UAT" tooltip="\\10.11.1.158\03. TEST Team\NLB SLO\FileShare\UAT"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
